--- a/biology/Virologie/Divavirus/Divavirus.xlsx
+++ b/biology/Virologie/Divavirus/Divavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Divavirus est un genre de virus de la famille des Betaflexiviridae, sous-famille des Trivirinae, qui comprend trois espèces acceptées par l'ICTV, dont l'espèce-type, Diuris virus A. Ce sont des virus à ARN à simple brin de polarité positive, rattachés au groupe IV de la classification Baltimore. 
 Le génome est monopartite. Les virions sont des particules filamenteuses, très flexueuses.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Divavirus », dérive du nom de l'espèce-type, Diuris virus A [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Divavirus », dérive du nom de l'espèce-type, Diuris virus A .
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules non-envelopées, flexueuses, filamenteuses, de 640 nm de long et 12 nm de diamètre[3].
-Le génome, monopartite, est constitué d'une molécule d'ARN à simple brin de polarité positive, linéaire, de 6,5 à 7,5 kb. L'extrémité 3' est polyadénylée. Cet ARN code au moins trois protéines[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules non-envelopées, flexueuses, filamenteuses, de 640 nm de long et 12 nm de diamètre.
+Le génome, monopartite, est constitué d'une molécule d'ARN à simple brin de polarité positive, linéaire, de 6,5 à 7,5 kb. L'extrémité 3' est polyadénylée. Cet ARN code au moins trois protéines.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 février 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 février 2021) :
 Diuris virus A
 Diuris virus B
 Hardenbergia virus A
